--- a/noptien/k180.xlsx
+++ b/noptien/k180.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\learn\noptien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F29F71-A168-4030-BFE9-B1F91F058510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC80DE-41BD-4E97-A264-3C439069B45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="HD" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hoc_Phi" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoc_Phi!$A$1:$O$201</definedName>
+  </definedNames>
   <calcPr calcId="999999"/>
 </workbook>
 </file>
@@ -3657,6 +3660,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3670,16 +3682,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5305,10 +5308,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5329,46 +5333,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
+    <row r="2" spans="1:15" s="51" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="73"/>
       <c r="B2" s="60" t="s">
         <v>27</v>
       </c>
@@ -5384,15 +5388,15 @@
       <c r="F2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
@@ -5488,7 +5492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>3</v>
       </c>
@@ -5535,7 +5539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>4</v>
       </c>
@@ -5582,7 +5586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -5627,7 +5631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>6</v>
       </c>
@@ -5672,7 +5676,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -5719,7 +5723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>9</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>10</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>11</v>
       </c>
@@ -5907,7 +5911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>12</v>
       </c>
@@ -5954,7 +5958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>13</v>
       </c>
@@ -6001,7 +6005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>14</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>15</v>
       </c>
@@ -6095,7 +6099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>16</v>
       </c>
@@ -6142,7 +6146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>17</v>
       </c>
@@ -6189,7 +6193,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>18</v>
       </c>
@@ -6236,7 +6240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>19</v>
       </c>
@@ -6283,7 +6287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>20</v>
       </c>
@@ -6328,7 +6332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>21</v>
       </c>
@@ -6375,7 +6379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>22</v>
       </c>
@@ -6422,7 +6426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
         <v>23</v>
       </c>
@@ -6469,7 +6473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>24</v>
       </c>
@@ -6516,7 +6520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>25</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>26</v>
       </c>
@@ -6610,7 +6614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>27</v>
       </c>
@@ -6657,7 +6661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="64" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="64" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>28</v>
       </c>
@@ -6705,7 +6709,7 @@
       </c>
       <c r="P30" s="52"/>
     </row>
-    <row r="31" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>29</v>
       </c>
@@ -6752,7 +6756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
         <v>30</v>
       </c>
@@ -6799,7 +6803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45">
         <v>31</v>
       </c>
@@ -6846,7 +6850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45">
         <v>32</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>33</v>
       </c>
@@ -6940,7 +6944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45">
         <v>34</v>
       </c>
@@ -6987,7 +6991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
         <v>35</v>
       </c>
@@ -7034,7 +7038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>36</v>
       </c>
@@ -7081,7 +7085,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
         <v>37</v>
       </c>
@@ -7128,7 +7132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>38</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
         <v>39</v>
       </c>
@@ -7222,7 +7226,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>40</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>41</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>42</v>
       </c>
@@ -7363,7 +7367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>43</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>44</v>
       </c>
@@ -7457,7 +7461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>45</v>
       </c>
@@ -7504,7 +7508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>46</v>
       </c>
@@ -7551,7 +7555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>47</v>
       </c>
@@ -7598,7 +7602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>48</v>
       </c>
@@ -7645,7 +7649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>49</v>
       </c>
@@ -7692,7 +7696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45">
         <v>50</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>51</v>
       </c>
@@ -7786,7 +7790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>52</v>
       </c>
@@ -7833,7 +7837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>53</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>54</v>
       </c>
@@ -7927,7 +7931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45">
         <v>55</v>
       </c>
@@ -7974,7 +7978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>56</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>57</v>
       </c>
@@ -8068,7 +8072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
         <v>58</v>
       </c>
@@ -8115,7 +8119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>59</v>
       </c>
@@ -8162,7 +8166,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>60</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="45">
         <v>61</v>
       </c>
@@ -8256,7 +8260,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45">
         <v>62</v>
       </c>
@@ -8303,7 +8307,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>63</v>
       </c>
@@ -8350,7 +8354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>64</v>
       </c>
@@ -8397,7 +8401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>65</v>
       </c>
@@ -8444,7 +8448,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45">
         <v>66</v>
       </c>
@@ -8491,7 +8495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>67</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45">
         <v>68</v>
       </c>
@@ -8585,7 +8589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>69</v>
       </c>
@@ -8632,7 +8636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45">
         <v>70</v>
       </c>
@@ -8679,7 +8683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45">
         <v>71</v>
       </c>
@@ -8726,7 +8730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45">
         <v>72</v>
       </c>
@@ -8773,7 +8777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45">
         <v>73</v>
       </c>
@@ -8820,7 +8824,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>74</v>
       </c>
@@ -8867,7 +8871,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>75</v>
       </c>
@@ -8914,7 +8918,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="45">
         <v>76</v>
       </c>
@@ -8961,7 +8965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45">
         <v>77</v>
       </c>
@@ -9008,7 +9012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45">
         <v>78</v>
       </c>
@@ -9055,7 +9059,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45">
         <v>79</v>
       </c>
@@ -9102,7 +9106,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45">
         <v>80</v>
       </c>
@@ -9149,7 +9153,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45">
         <v>81</v>
       </c>
@@ -9196,7 +9200,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45">
         <v>82</v>
       </c>
@@ -9243,7 +9247,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45">
         <v>83</v>
       </c>
@@ -9290,7 +9294,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45">
         <v>84</v>
       </c>
@@ -9337,7 +9341,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45">
         <v>85</v>
       </c>
@@ -9384,7 +9388,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45">
         <v>86</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45">
         <v>87</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45">
         <v>88</v>
       </c>
@@ -9525,7 +9529,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45">
         <v>89</v>
       </c>
@@ -9572,7 +9576,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45">
         <v>90</v>
       </c>
@@ -9619,7 +9623,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="45">
         <v>91</v>
       </c>
@@ -9666,7 +9670,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="45">
         <v>92</v>
       </c>
@@ -9713,7 +9717,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45">
         <v>93</v>
       </c>
@@ -9760,7 +9764,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45">
         <v>94</v>
       </c>
@@ -9807,7 +9811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="45">
         <v>95</v>
       </c>
@@ -9854,7 +9858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45">
         <v>96</v>
       </c>
@@ -9901,7 +9905,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45">
         <v>97</v>
       </c>
@@ -9948,7 +9952,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="45">
         <v>98</v>
       </c>
@@ -9995,7 +9999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="45">
         <v>99</v>
       </c>
@@ -10042,7 +10046,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="45">
         <v>100</v>
       </c>
@@ -10089,7 +10093,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="45">
         <v>101</v>
       </c>
@@ -10136,7 +10140,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="45">
         <v>102</v>
       </c>
@@ -10183,7 +10187,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="45">
         <v>103</v>
       </c>
@@ -10230,7 +10234,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="45">
         <v>104</v>
       </c>
@@ -10277,7 +10281,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="45">
         <v>105</v>
       </c>
@@ -10324,7 +10328,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="45">
         <v>106</v>
       </c>
@@ -10371,7 +10375,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="109" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="45">
         <v>107</v>
       </c>
@@ -10418,7 +10422,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="45">
         <v>108</v>
       </c>
@@ -10465,7 +10469,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="45">
         <v>109</v>
       </c>
@@ -10512,7 +10516,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="45">
         <v>110</v>
       </c>
@@ -10559,7 +10563,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="45">
         <v>111</v>
       </c>
@@ -10606,7 +10610,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45">
         <v>112</v>
       </c>
@@ -10653,7 +10657,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="115" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="45">
         <v>113</v>
       </c>
@@ -10700,7 +10704,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="116" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="45">
         <v>114</v>
       </c>
@@ -10747,7 +10751,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="45">
         <v>115</v>
       </c>
@@ -10794,7 +10798,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="45">
         <v>116</v>
       </c>
@@ -10841,7 +10845,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45">
         <v>117</v>
       </c>
@@ -10888,7 +10892,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="45">
         <v>118</v>
       </c>
@@ -10935,7 +10939,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="45">
         <v>119</v>
       </c>
@@ -10982,7 +10986,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45">
         <v>120</v>
       </c>
@@ -11029,7 +11033,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="123" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="45">
         <v>121</v>
       </c>
@@ -11076,7 +11080,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="45">
         <v>122</v>
       </c>
@@ -11123,7 +11127,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="45">
         <v>123</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="126" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="45">
         <v>124</v>
       </c>
@@ -11217,7 +11221,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="127" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45">
         <v>125</v>
       </c>
@@ -11264,7 +11268,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="128" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="45">
         <v>126</v>
       </c>
@@ -11358,7 +11362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45">
         <v>128</v>
       </c>
@@ -11405,7 +11409,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="131" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="45">
         <v>129</v>
       </c>
@@ -11546,7 +11550,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="134" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="45">
         <v>132</v>
       </c>
@@ -11593,7 +11597,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="135" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45">
         <v>133</v>
       </c>
@@ -11640,7 +11644,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="136" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="45">
         <v>134</v>
       </c>
@@ -11687,7 +11691,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="137" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="45">
         <v>135</v>
       </c>
@@ -11734,7 +11738,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="138" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45">
         <v>136</v>
       </c>
@@ -11781,7 +11785,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="139" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="45">
         <v>137</v>
       </c>
@@ -11828,7 +11832,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="140" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="45">
         <v>138</v>
       </c>
@@ -11875,7 +11879,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="141" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="45">
         <v>139</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="45">
         <v>144</v>
       </c>
@@ -12157,7 +12161,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="147" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="45">
         <v>145</v>
       </c>
@@ -12204,7 +12208,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="148" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="45">
         <v>146</v>
       </c>
@@ -12251,7 +12255,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="149" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="45">
         <v>147</v>
       </c>
@@ -12298,7 +12302,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="150" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="45">
         <v>148</v>
       </c>
@@ -12345,7 +12349,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="151" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="45">
         <v>149</v>
       </c>
@@ -12392,7 +12396,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="152" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="45">
         <v>150</v>
       </c>
@@ -12439,7 +12443,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="153" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="45">
         <v>151</v>
       </c>
@@ -12486,7 +12490,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="154" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="45">
         <v>152</v>
       </c>
@@ -12533,7 +12537,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="155" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="45">
         <v>153</v>
       </c>
@@ -12627,7 +12631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="45">
         <v>155</v>
       </c>
@@ -12768,7 +12772,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="45">
         <v>158</v>
       </c>
@@ -12815,7 +12819,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="45">
         <v>159</v>
       </c>
@@ -12862,7 +12866,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="162" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="45">
         <v>160</v>
       </c>
@@ -12909,7 +12913,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="163" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="45">
         <v>161</v>
       </c>
@@ -12956,7 +12960,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="164" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="45">
         <v>162</v>
       </c>
@@ -13003,7 +13007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="45">
         <v>163</v>
       </c>
@@ -13050,7 +13054,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="45">
         <v>164</v>
       </c>
@@ -13097,7 +13101,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="167" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="45">
         <v>165</v>
       </c>
@@ -13144,7 +13148,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="45">
         <v>166</v>
       </c>
@@ -13191,7 +13195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="45">
         <v>167</v>
       </c>
@@ -13238,7 +13242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="45">
         <v>168</v>
       </c>
@@ -13285,7 +13289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="45">
         <v>169</v>
       </c>
@@ -13332,7 +13336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="45">
         <v>170</v>
       </c>
@@ -13379,7 +13383,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="45">
         <v>171</v>
       </c>
@@ -13426,7 +13430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="45">
         <v>172</v>
       </c>
@@ -13473,7 +13477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="45">
         <v>173</v>
       </c>
@@ -13520,7 +13524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="45">
         <v>174</v>
       </c>
@@ -13567,7 +13571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="45">
         <v>175</v>
       </c>
@@ -13614,7 +13618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="45">
         <v>176</v>
       </c>
@@ -13661,7 +13665,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="45">
         <v>177</v>
       </c>
@@ -13708,7 +13712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="45">
         <v>178</v>
       </c>
@@ -13755,7 +13759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="45">
         <v>179</v>
       </c>
@@ -13802,7 +13806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="45">
         <v>180</v>
       </c>
@@ -13849,7 +13853,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="45">
         <v>181</v>
       </c>
@@ -13896,7 +13900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="45">
         <v>182</v>
       </c>
@@ -13943,7 +13947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="45">
         <v>183</v>
       </c>
@@ -13990,7 +13994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="45">
         <v>184</v>
       </c>
@@ -14037,7 +14041,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="45">
         <v>185</v>
       </c>
@@ -14084,7 +14088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="45">
         <v>186</v>
       </c>
@@ -14131,7 +14135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="45">
         <v>187</v>
       </c>
@@ -14178,7 +14182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="45">
         <v>188</v>
       </c>
@@ -14225,7 +14229,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="45">
         <v>189</v>
       </c>
@@ -14272,7 +14276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="45">
         <v>190</v>
       </c>
@@ -14319,7 +14323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="193" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="45">
         <v>191</v>
       </c>
@@ -14366,7 +14370,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="194" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="45">
         <v>192</v>
       </c>
@@ -14413,7 +14417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="45">
         <v>193</v>
       </c>
@@ -14460,7 +14464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="196" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="45">
         <v>194</v>
       </c>
@@ -14507,7 +14511,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="45">
         <v>195</v>
       </c>
@@ -14554,7 +14558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="198" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="45">
         <v>196</v>
       </c>
@@ -14648,7 +14652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="200" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="45">
         <v>198</v>
       </c>
@@ -14695,7 +14699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -14744,18 +14748,34 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:O201" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="TM"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Dương Tuấn Dũng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
